--- a/artfynd/A 14927-2023.xlsx
+++ b/artfynd/A 14927-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -819,6 +819,437 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112313702</v>
+      </c>
+      <c r="B3" t="n">
+        <v>90800</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>752827</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7093488</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112313576</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>752714</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7093570</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112313655</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90823</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>752820</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7093493</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112313590</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Trollberget-Kullaheden, Vb</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>752543</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7093684</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Umeå</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Umeå socken</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-24</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14927-2023.xlsx
+++ b/artfynd/A 14927-2023.xlsx
@@ -821,10 +821,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112313702</v>
+        <v>112313576</v>
       </c>
       <c r="B3" t="n">
-        <v>90800</v>
+        <v>56575</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -833,38 +833,47 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>752827</v>
+        <v>752714</v>
       </c>
       <c r="R3" t="n">
-        <v>7093488</v>
+        <v>7093570</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -923,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112313576</v>
+        <v>112313590</v>
       </c>
       <c r="B4" t="n">
-        <v>56575</v>
+        <v>56446</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,31 +948,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -972,10 +977,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752714</v>
+        <v>752543</v>
       </c>
       <c r="R4" t="n">
-        <v>7093570</v>
+        <v>7093684</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,7 +1042,7 @@
         <v>112313655</v>
       </c>
       <c r="B5" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1145,10 +1150,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112313590</v>
+        <v>112313702</v>
       </c>
       <c r="B6" t="n">
-        <v>56446</v>
+        <v>90814</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1157,43 +1162,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752543</v>
+        <v>752827</v>
       </c>
       <c r="R6" t="n">
-        <v>7093684</v>
+        <v>7093488</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 14927-2023.xlsx
+++ b/artfynd/A 14927-2023.xlsx
@@ -821,10 +821,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112313576</v>
+        <v>112313590</v>
       </c>
       <c r="B3" t="n">
-        <v>56575</v>
+        <v>56446</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -837,31 +837,27 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -870,10 +866,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>752714</v>
+        <v>752543</v>
       </c>
       <c r="R3" t="n">
-        <v>7093570</v>
+        <v>7093684</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -932,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112313590</v>
+        <v>112313655</v>
       </c>
       <c r="B4" t="n">
-        <v>56446</v>
+        <v>90837</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,27 +944,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>5966</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>752543</v>
+        <v>752820</v>
       </c>
       <c r="R4" t="n">
-        <v>7093684</v>
+        <v>7093493</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1039,10 +1039,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112313655</v>
+        <v>112313702</v>
       </c>
       <c r="B5" t="n">
-        <v>90837</v>
+        <v>90814</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1051,47 +1051,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>752820</v>
+        <v>752827</v>
       </c>
       <c r="R5" t="n">
-        <v>7093493</v>
+        <v>7093488</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,10 +1141,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112313702</v>
+        <v>112313576</v>
       </c>
       <c r="B6" t="n">
-        <v>90814</v>
+        <v>56575</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,38 +1153,47 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Trollberget-Kullaheden, Vb</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>752827</v>
+        <v>752714</v>
       </c>
       <c r="R6" t="n">
-        <v>7093488</v>
+        <v>7093570</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
